--- a/대학부랭킹_20250808.xlsx
+++ b/대학부랭킹_20250808.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\업무\BDR\콘텐츠\랭킹\팀랭킹프로그램\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319BBD73-E881-428D-9062-7D77E6E88917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7995"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="147">
   <si>
     <t>랭킹</t>
   </si>
@@ -392,6 +393,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>강원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부경대학교 바구니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인하대학교 마농</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>충청</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -400,110 +421,86 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>제주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>강원</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>연세대학교 바구니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>경기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>부경대학교 바구니</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인하대학교 마농</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>경기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>경상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인천</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>서울</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>경기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>충청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전라</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>충청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>충청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>서울</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>강원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연세대학교 바구니</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>충청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전라</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울</t>
+    <t>경남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>충북</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>충남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전북</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -587,7 +584,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -889,24 +886,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="2" max="2" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.8984375" customWidth="1"/>
     <col min="4" max="4" width="32.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -926,7 +923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -946,7 +943,7 @@
         <v>-168.75</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -966,7 +963,7 @@
         <v>-82.625</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -986,7 +983,7 @@
         <v>40.9375</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1006,7 +1003,7 @@
         <v>-64.75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1026,7 +1023,7 @@
         <v>65.9375</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1046,7 +1043,7 @@
         <v>-112.9375</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1066,7 +1063,7 @@
         <v>-167.9375</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1086,7 +1083,7 @@
         <v>-161.375</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1106,7 +1103,7 @@
         <v>-102.1875</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1126,7 +1123,7 @@
         <v>-60.3125</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1134,7 +1131,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1146,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1166,7 +1163,7 @@
         <v>-106.875</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1186,7 +1183,7 @@
         <v>-110.3125</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1206,7 +1203,7 @@
         <v>24.375</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1226,7 +1223,7 @@
         <v>-111.6875</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1234,7 +1231,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1246,7 +1243,7 @@
         <v>-46.25</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1266,7 +1263,7 @@
         <v>-34.6875</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1274,7 +1271,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1286,7 +1283,7 @@
         <v>-33.125</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1306,7 +1303,7 @@
         <v>-69.75</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1326,7 +1323,7 @@
         <v>-29.3125</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1346,7 +1343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1366,7 +1363,7 @@
         <v>-87.625</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1386,7 +1383,7 @@
         <v>-122.9375</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1394,7 +1391,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
@@ -1406,7 +1403,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1426,7 +1423,7 @@
         <v>-50.625</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1434,7 +1431,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D27" t="s">
         <v>30</v>
@@ -1446,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1466,7 +1463,7 @@
         <v>-107.1875</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1474,7 +1471,7 @@
         <v>-14</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="D29" t="s">
         <v>32</v>
@@ -1486,7 +1483,7 @@
         <v>-142.1875</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1506,7 +1503,7 @@
         <v>-71.25</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1526,7 +1523,7 @@
         <v>-17.625</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1546,7 +1543,7 @@
         <v>-85</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1566,7 +1563,7 @@
         <v>-25.125</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1574,7 +1571,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="D34" t="s">
         <v>37</v>
@@ -1586,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1594,7 +1591,7 @@
         <v>8</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s">
         <v>38</v>
@@ -1606,7 +1603,7 @@
         <v>5.625</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1626,7 +1623,7 @@
         <v>-166.25</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1646,7 +1643,7 @@
         <v>-59.0625</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1666,7 +1663,7 @@
         <v>-8.75</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1686,7 +1683,7 @@
         <v>-64.8125</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1694,7 +1691,7 @@
         <v>-7</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
         <v>43</v>
@@ -1706,7 +1703,7 @@
         <v>-61</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1714,7 +1711,7 @@
         <v>-12</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
         <v>44</v>
@@ -1726,7 +1723,7 @@
         <v>-91.0625</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1734,7 +1731,7 @@
         <v>8</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D42" t="s">
         <v>45</v>
@@ -1746,7 +1743,7 @@
         <v>-5.625</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1754,10 +1751,10 @@
         <v>15</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E43">
         <v>39.375</v>
@@ -1766,7 +1763,7 @@
         <v>6.5625</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1774,7 +1771,7 @@
         <v>-5</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D44" t="s">
         <v>46</v>
@@ -1786,7 +1783,7 @@
         <v>-33.875</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1794,7 +1791,7 @@
         <v>-7</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D45" t="s">
         <v>47</v>
@@ -1806,7 +1803,7 @@
         <v>-45.625</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1814,10 +1811,10 @@
         <v>9</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E46">
         <v>37.5</v>
@@ -1826,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1846,7 +1843,7 @@
         <v>-31.25</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1866,7 +1863,7 @@
         <v>-19.0625</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1874,7 +1871,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D49" t="s">
         <v>50</v>
@@ -1886,7 +1883,7 @@
         <v>-7.5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1906,7 +1903,7 @@
         <v>-10.3125</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>48</v>
       </c>
@@ -1914,7 +1911,7 @@
         <v>-3</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D51" t="s">
         <v>52</v>
@@ -1926,7 +1923,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1946,7 +1943,7 @@
         <v>-15.3125</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1954,7 +1951,7 @@
         <v>-5</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="D53" t="s">
         <v>54</v>
@@ -1966,7 +1963,7 @@
         <v>-18.4375</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1986,7 +1983,7 @@
         <v>-11.25</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2006,7 +2003,7 @@
         <v>-21.25</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2026,7 +2023,7 @@
         <v>-18.4375</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2046,7 +2043,7 @@
         <v>-29.0625</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2054,7 +2051,7 @@
         <v>15</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D58" t="s">
         <v>59</v>
@@ -2066,7 +2063,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2086,7 +2083,7 @@
         <v>3.375</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2106,7 +2103,7 @@
         <v>-9.375</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2114,7 +2111,7 @@
         <v>16</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D61" t="s">
         <v>62</v>
@@ -2126,7 +2123,7 @@
         <v>5.625</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2134,7 +2131,7 @@
         <v>6</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D62" t="s">
         <v>63</v>
@@ -2146,7 +2143,7 @@
         <v>-0.9375</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>60</v>
       </c>
@@ -2154,7 +2151,7 @@
         <v>65</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D63" t="s">
         <v>64</v>
@@ -2163,7 +2160,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2171,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D64" t="s">
         <v>66</v>
@@ -2183,7 +2180,7 @@
         <v>-3.75</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2200,7 +2197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2220,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2240,7 +2237,7 @@
         <v>-10.9375</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2260,7 +2257,7 @@
         <v>-8.75</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2280,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2288,7 +2285,7 @@
         <v>13</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D70" t="s">
         <v>72</v>
@@ -2300,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>68</v>
       </c>
@@ -2320,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>68</v>
       </c>
@@ -2340,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>68</v>
       </c>
@@ -2348,7 +2345,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D73" t="s">
         <v>75</v>
@@ -2360,7 +2357,7 @@
         <v>-5.625</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2377,7 +2374,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2397,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>73</v>
       </c>
@@ -2417,7 +2414,7 @@
         <v>-1.875</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2437,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2457,7 +2454,7 @@
         <v>-9.1875</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2465,7 +2462,7 @@
         <v>-5</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D79" t="s">
         <v>81</v>
@@ -2477,7 +2474,7 @@
         <v>-6.5625</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2485,7 +2482,7 @@
         <v>10</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D80" t="s">
         <v>82</v>
@@ -2497,7 +2494,7 @@
         <v>-0.75</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2505,7 +2502,7 @@
         <v>10</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D81" t="s">
         <v>83</v>
@@ -2517,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2525,7 +2522,7 @@
         <v>-20</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D82" t="s">
         <v>84</v>
@@ -2537,7 +2534,7 @@
         <v>-16.875</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>80</v>
       </c>
@@ -2545,7 +2542,7 @@
         <v>-4</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D83" t="s">
         <v>85</v>
@@ -2557,7 +2554,7 @@
         <v>-5.625</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>80</v>
       </c>
@@ -2565,10 +2562,10 @@
         <v>-4</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D84" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E84">
         <v>7.5</v>
@@ -2577,7 +2574,7 @@
         <v>-5.625</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>80</v>
       </c>
@@ -2585,7 +2582,7 @@
         <v>-20</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D85" t="s">
         <v>86</v>
@@ -2597,7 +2594,7 @@
         <v>-16.875</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>80</v>
       </c>
@@ -2605,7 +2602,7 @@
         <v>-4</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D86" t="s">
         <v>87</v>
@@ -2617,7 +2614,7 @@
         <v>-5.625</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>80</v>
       </c>
@@ -2625,7 +2622,7 @@
         <v>65</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D87" t="s">
         <v>88</v>
@@ -2634,7 +2631,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>80</v>
       </c>
@@ -2642,7 +2639,7 @@
         <v>10</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D88" t="s">
         <v>89</v>
@@ -2654,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>80</v>
       </c>
@@ -2662,7 +2659,7 @@
         <v>10</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D89" t="s">
         <v>90</v>
@@ -2674,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2682,7 +2679,7 @@
         <v>-22</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D90" t="s">
         <v>91</v>
@@ -2694,7 +2691,7 @@
         <v>-12.5</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>89</v>
       </c>
@@ -2702,7 +2699,7 @@
         <v>-4</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D91" t="s">
         <v>92</v>
@@ -2714,7 +2711,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2722,7 +2719,7 @@
         <v>-3</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D92" t="s">
         <v>93</v>
@@ -2734,7 +2731,7 @@
         <v>-4.6875</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2742,7 +2739,7 @@
         <v>-2</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D93" t="s">
         <v>94</v>
@@ -2754,7 +2751,7 @@
         <v>-3.75</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>92</v>
       </c>
@@ -2762,7 +2759,7 @@
         <v>-2</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D94" t="s">
         <v>95</v>
@@ -2774,7 +2771,7 @@
         <v>-3.75</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>92</v>
       </c>
@@ -2782,7 +2779,7 @@
         <v>-2</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D95" t="s">
         <v>96</v>
@@ -2794,7 +2791,7 @@
         <v>-3.75</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>92</v>
       </c>
@@ -2802,7 +2799,7 @@
         <v>-2</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D96" t="s">
         <v>97</v>
@@ -2814,7 +2811,7 @@
         <v>-3.75</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>92</v>
       </c>
@@ -2822,7 +2819,7 @@
         <v>-2</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D97" t="s">
         <v>98</v>
@@ -2834,7 +2831,7 @@
         <v>-3.75</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>92</v>
       </c>
@@ -2842,7 +2839,7 @@
         <v>65</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D98" t="s">
         <v>99</v>
@@ -2851,7 +2848,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>92</v>
       </c>
@@ -2859,7 +2856,7 @@
         <v>65</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D99" t="s">
         <v>100</v>
@@ -2868,7 +2865,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>92</v>
       </c>
@@ -2876,7 +2873,7 @@
         <v>65</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D100" t="s">
         <v>101</v>
@@ -2885,7 +2882,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>92</v>
       </c>
@@ -2893,7 +2890,7 @@
         <v>15</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D101" t="s">
         <v>102</v>
@@ -2905,7 +2902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2913,7 +2910,7 @@
         <v>10</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D102" t="s">
         <v>103</v>
@@ -2925,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>101</v>
       </c>
@@ -2933,7 +2930,7 @@
         <v>-2</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D103" t="s">
         <v>104</v>
@@ -2945,7 +2942,7 @@
         <v>-3.125</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>101</v>
       </c>
@@ -2953,7 +2950,7 @@
         <v>-2</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D104" t="s">
         <v>105</v>
@@ -2965,7 +2962,7 @@
         <v>-3.125</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>101</v>
       </c>
@@ -2973,7 +2970,7 @@
         <v>-2</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D105" t="s">
         <v>106</v>
@@ -2985,7 +2982,7 @@
         <v>-3.125</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2993,7 +2990,7 @@
         <v>-38</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D106" t="s">
         <v>107</v>
@@ -3005,7 +3002,7 @@
         <v>-16.875</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>105</v>
       </c>
@@ -3013,7 +3010,7 @@
         <v>8</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D107" t="s">
         <v>108</v>
@@ -3025,7 +3022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3033,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D108" t="s">
         <v>109</v>
@@ -3045,7 +3042,7 @@
         <v>-1.875</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>107</v>
       </c>
@@ -3053,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D109" t="s">
         <v>110</v>
@@ -3065,7 +3062,7 @@
         <v>-1.875</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3073,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D110" t="s">
         <v>111</v>
@@ -3085,7 +3082,7 @@
         <v>-1.5625</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>109</v>
       </c>
@@ -3093,7 +3090,7 @@
         <v>-45</v>
       </c>
       <c r="C111" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D111" t="s">
         <v>112</v>

--- a/대학부랭킹_20250808.xlsx
+++ b/대학부랭킹_20250808.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\업무\BDR\콘텐츠\랭킹\팀랭킹프로그램\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319BBD73-E881-428D-9062-7D77E6E88917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6287B3-5E5A-44EC-BB4B-A0EE77EF2EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="142">
   <si>
     <t>랭킹</t>
   </si>
@@ -385,14 +385,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>경상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>충청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>강원</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -413,26 +405,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>충청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전라</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>제주</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>충청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>충청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>서울</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -449,14 +425,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>충청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전라</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>서울</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -473,10 +441,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>서울</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>경남</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -494,6 +458,22 @@
   </si>
   <si>
     <t>부산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경북</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -889,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1131,7 +1111,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1231,7 +1211,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1271,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1391,7 +1371,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
@@ -1431,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s">
         <v>30</v>
@@ -1471,7 +1451,7 @@
         <v>-14</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D29" t="s">
         <v>32</v>
@@ -1571,7 +1551,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D34" t="s">
         <v>37</v>
@@ -1591,7 +1571,7 @@
         <v>8</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
         <v>38</v>
@@ -1691,7 +1671,7 @@
         <v>-7</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" t="s">
         <v>43</v>
@@ -1711,7 +1691,7 @@
         <v>-12</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
         <v>44</v>
@@ -1754,7 +1734,7 @@
         <v>115</v>
       </c>
       <c r="D43" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E43">
         <v>39.375</v>
@@ -1771,7 +1751,7 @@
         <v>-5</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D44" t="s">
         <v>46</v>
@@ -1791,7 +1771,7 @@
         <v>-7</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
         <v>47</v>
@@ -1811,10 +1791,10 @@
         <v>9</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E46">
         <v>37.5</v>
@@ -1951,7 +1931,7 @@
         <v>-5</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D53" t="s">
         <v>54</v>
@@ -2051,7 +2031,7 @@
         <v>15</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D58" t="s">
         <v>59</v>
@@ -2111,7 +2091,7 @@
         <v>16</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D61" t="s">
         <v>62</v>
@@ -2131,7 +2111,7 @@
         <v>6</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D62" t="s">
         <v>63</v>
@@ -2151,7 +2131,7 @@
         <v>65</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D63" t="s">
         <v>64</v>
@@ -2168,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D64" t="s">
         <v>66</v>
@@ -2265,7 +2245,7 @@
         <v>13</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="D69" t="s">
         <v>71</v>
@@ -2285,7 +2265,7 @@
         <v>13</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D70" t="s">
         <v>72</v>
@@ -2305,7 +2285,7 @@
         <v>13</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="D71" t="s">
         <v>73</v>
@@ -2325,7 +2305,7 @@
         <v>13</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D72" t="s">
         <v>74</v>
@@ -2345,7 +2325,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D73" t="s">
         <v>75</v>
@@ -2402,7 +2382,7 @@
         <v>3</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="D76" t="s">
         <v>78</v>
@@ -2462,7 +2442,7 @@
         <v>-5</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D79" t="s">
         <v>81</v>
@@ -2482,7 +2462,7 @@
         <v>10</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D80" t="s">
         <v>82</v>
@@ -2502,7 +2482,7 @@
         <v>10</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D81" t="s">
         <v>83</v>
@@ -2522,7 +2502,7 @@
         <v>-20</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D82" t="s">
         <v>84</v>
@@ -2542,7 +2522,7 @@
         <v>-4</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D83" t="s">
         <v>85</v>
@@ -2562,10 +2542,10 @@
         <v>-4</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D84" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E84">
         <v>7.5</v>
@@ -2582,7 +2562,7 @@
         <v>-20</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D85" t="s">
         <v>86</v>
@@ -2602,7 +2582,7 @@
         <v>-4</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D86" t="s">
         <v>87</v>
@@ -2622,7 +2602,7 @@
         <v>65</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D87" t="s">
         <v>88</v>
@@ -2659,7 +2639,7 @@
         <v>10</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D89" t="s">
         <v>90</v>
@@ -2679,7 +2659,7 @@
         <v>-22</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D90" t="s">
         <v>91</v>
@@ -2699,7 +2679,7 @@
         <v>-4</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D91" t="s">
         <v>92</v>
@@ -2719,7 +2699,7 @@
         <v>-3</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D92" t="s">
         <v>93</v>
@@ -2739,7 +2719,7 @@
         <v>-2</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D93" t="s">
         <v>94</v>
@@ -2759,7 +2739,7 @@
         <v>-2</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D94" t="s">
         <v>95</v>
@@ -2779,7 +2759,7 @@
         <v>-2</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D95" t="s">
         <v>96</v>
@@ -2799,7 +2779,7 @@
         <v>-2</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D96" t="s">
         <v>97</v>
@@ -2819,7 +2799,7 @@
         <v>-2</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D97" t="s">
         <v>98</v>
@@ -2839,7 +2819,7 @@
         <v>65</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D98" t="s">
         <v>99</v>
@@ -2856,7 +2836,7 @@
         <v>65</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D99" t="s">
         <v>100</v>
@@ -2873,7 +2853,7 @@
         <v>65</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D100" t="s">
         <v>101</v>
@@ -2890,7 +2870,7 @@
         <v>15</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D101" t="s">
         <v>102</v>
@@ -2910,7 +2890,7 @@
         <v>10</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D102" t="s">
         <v>103</v>
@@ -2930,7 +2910,7 @@
         <v>-2</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D103" t="s">
         <v>104</v>
@@ -2950,7 +2930,7 @@
         <v>-2</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D104" t="s">
         <v>105</v>
@@ -2970,7 +2950,7 @@
         <v>-2</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D105" t="s">
         <v>106</v>
@@ -2990,7 +2970,7 @@
         <v>-38</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D106" t="s">
         <v>107</v>
@@ -3010,7 +2990,7 @@
         <v>8</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D107" t="s">
         <v>108</v>
@@ -3030,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="D108" t="s">
         <v>109</v>
@@ -3050,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D109" t="s">
         <v>110</v>
@@ -3070,7 +3050,7 @@
         <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D110" t="s">
         <v>111</v>
@@ -3090,7 +3070,7 @@
         <v>-45</v>
       </c>
       <c r="C111" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D111" t="s">
         <v>112</v>
